--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,31 +58,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户通过用户名登录成功</t>
+  </si>
+  <si>
     <t>checkCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证登录用户名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证登录手机号不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证登录用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证登录密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名登录-登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码登录-登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入控制-登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不存在的用户名-登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不存在的手机号码-登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名输入空值-登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入空值-登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入错误-登录失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,67 +556,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" s="1"/>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,38 @@
   </si>
   <si>
     <t>验证码输入错误-登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您的用户名或手机号！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您的登录密码！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入安全码！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -570,11 +602,12 @@
     <col min="4" max="4" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,13 +627,16 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -619,11 +655,14 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -642,11 +681,14 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -663,11 +705,14 @@
         <v>15</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -686,11 +731,14 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -709,11 +757,14 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -730,11 +781,14 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -750,11 +804,14 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -771,7 +828,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="H9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证登录密码为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>用户名或密码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getErrorCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +591,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -641,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -664,13 +664,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -693,10 +693,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -714,13 +714,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -743,10 +743,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -758,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -769,10 +769,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -793,33 +793,33 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -827,12 +827,14 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校验验证码为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,18 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校验验证码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +222,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getErrorCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -612,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -627,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -641,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -656,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -664,13 +652,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -682,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -690,13 +678,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -706,73 +694,73 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -782,44 +770,44 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -828,13 +816,13 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
   </si>
   <si>
     <t>${ConstantUtils.getErrorCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +575,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -652,7 +648,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -678,7 +674,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -702,7 +698,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -728,7 +724,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -754,7 +750,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -778,7 +774,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -801,7 +797,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,38 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名登录-登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码登录-登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码输入控制-登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入不存在的用户名-登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入不存在的手机号码-登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名输入空值-登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入空值-登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码输入错误-登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +174,78 @@
   </si>
   <si>
     <t>${ConstantUtils.getErrorCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同用户使用同一手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不存在的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不存在的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名输入空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getNormalUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getSpecifalUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getSpecifalMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getNormalMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getNormalMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialSuccess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,21 +596,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -596,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -611,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -625,22 +649,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -651,22 +675,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -677,23 +701,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -701,25 +727,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -727,25 +753,23 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -753,23 +777,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -777,22 +803,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -800,25 +829,72 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不同用户使用同一手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +242,14 @@
   </si>
   <si>
     <t>specialSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同用户使用同一手机号码-用户名登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同用户使用同一手机号码-手机号登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +603,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -652,10 +656,10 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -678,10 +682,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -704,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -716,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -730,10 +734,10 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -742,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -756,10 +760,10 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -780,10 +784,10 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -806,10 +810,10 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -832,7 +836,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -856,7 +860,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -879,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,22 @@
   </si>
   <si>
     <t>不同用户使用同一手机号码-手机号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户被锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getLockMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户已经被锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getLockUserName()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -898,6 +914,58 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户被锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getLockMobileNum()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +262,14 @@
   </si>
   <si>
     <t>${UserInfoUtils.getLockUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户被锁-手机号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户被锁-用户名登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +623,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -925,10 +929,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -937,7 +941,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
@@ -951,10 +955,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -963,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Login.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -938,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>59</v>
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>59</v>
